--- a/Log/section-history.xlsx
+++ b/Log/section-history.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022/11/01, 09:43:18</t>
+          <t>2022/11/11, 14:19:43</t>
         </is>
       </c>
     </row>

--- a/Log/section-history.xlsx
+++ b/Log/section-history.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022/11/11, 14:19:43</t>
+          <t>2022/11/18, 13:25:28</t>
         </is>
       </c>
     </row>

--- a/Log/section-history.xlsx
+++ b/Log/section-history.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022/11/18, 13:25:28</t>
+          <t>2022/11/21, 08:40:30</t>
         </is>
       </c>
     </row>

--- a/Log/section-history.xlsx
+++ b/Log/section-history.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022/11/21, 08:40:30</t>
+          <t>2022/11/22, 16:38:38</t>
         </is>
       </c>
     </row>

--- a/Log/section-history.xlsx
+++ b/Log/section-history.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022/11/22, 16:38:38</t>
+          <t>2022/11/22, 17:27:46</t>
         </is>
       </c>
     </row>

--- a/Log/section-history.xlsx
+++ b/Log/section-history.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022/11/22, 17:27:46</t>
+          <t>2022/12/14, 16:37:16</t>
         </is>
       </c>
     </row>
